--- a/app/excel/Zadachka.xlsx
+++ b/app/excel/Zadachka.xlsx
@@ -2,43 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8196" windowWidth="16380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,61 +42,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -401,213 +359,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="18"/>
-    <col customWidth="1" max="2" min="2" style="5" width="18.44"/>
-    <col customWidth="1" max="3" min="3" style="5" width="20.11"/>
-    <col customWidth="1" max="4" min="4" style="5" width="20.33"/>
-    <col customWidth="1" max="5" min="5" style="5" width="17.33"/>
-    <col customWidth="1" max="6" min="6" style="5" width="27.89"/>
-    <col customWidth="1" max="1025" min="7" style="5" width="8.550000000000001"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.44140625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="20.109375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20.33203125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="17.33203125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="27.88671875"/>
+    <col customWidth="1" max="1025" min="7" style="1" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="6">
-      <c r="A1" s="7" t="n"/>
-      <c r="B1" s="7" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="1" s="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>альфа (float)</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>бета (float)</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>v(int)</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>V(int)</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>тета (функция времени) </t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="6">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>тета (функция времени)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Товар 1</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Статус: Оптимально</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Товар 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E3" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Статус: Оптимально</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="6">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Товар 2</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" s="9" t="n">
+      <c r="F3" s="3" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Сортировка: b/a</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="4" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Товар 3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E4" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="F3" s="8" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Сортировка: b/a</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="4" s="6">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Товар 3</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>105</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>125</v>
-      </c>
-      <c r="D4" s="9" t="n">
+      <c r="F4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Значение целевой функции: 2127.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="1">
+      <c r="B5" t="n">
+        <v>111</v>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E5" t="n">
         <v>1000</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>Значение целевой функции: 2150.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="6">
-      <c r="B5" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>Количество решенных ЗЛП: 9</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="6" s="6">
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>x_0 = 10.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="7" s="6">
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>x_1 = 13.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="8" s="6">
-      <c r="H8" s="5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Количество решенных ЗЛП: 5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="6" s="1">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x_0 = 9.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" s="1">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x_1 = 12.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="8" s="1">
+      <c r="H8" t="inlineStr">
         <is>
           <t>x_2 = 15.0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="6">
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>x_3 = 18.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="10" s="6"/>
-    <row customHeight="1" ht="13.8" r="11" s="6"/>
-    <row customHeight="1" ht="13.8" r="12" s="6"/>
-    <row customHeight="1" ht="13.8" r="13" s="6"/>
-    <row customHeight="1" ht="13.8" r="14" s="6"/>
-    <row customHeight="1" ht="13.8" r="15" s="6"/>
-    <row customHeight="1" ht="13.8" r="16" s="6"/>
-    <row customHeight="1" ht="13.8" r="17" s="6"/>
-    <row customHeight="1" ht="13.8" r="18" s="6"/>
-    <row customHeight="1" ht="13.8" r="19" s="6"/>
-    <row customHeight="1" ht="13.8" r="20" s="6"/>
-    <row customHeight="1" ht="13.8" r="21" s="6"/>
-    <row customHeight="1" ht="13.8" r="22" s="6"/>
-    <row customHeight="1" ht="13.8" r="23" s="6"/>
-    <row customHeight="1" ht="13.8" r="24" s="6"/>
-    <row customHeight="1" ht="13.8" r="25" s="6"/>
-    <row customHeight="1" ht="13.8" r="26" s="6"/>
-    <row customHeight="1" ht="13.8" r="27" s="6"/>
-    <row customHeight="1" ht="13.8" r="28" s="6"/>
-    <row customHeight="1" ht="13.8" r="29" s="6"/>
-    <row customHeight="1" ht="13.8" r="30" s="6"/>
-    <row customHeight="1" ht="13.8" r="31" s="6"/>
-    <row customHeight="1" ht="13.8" r="32" s="6"/>
-    <row customHeight="1" ht="13.8" r="33" s="6"/>
+    <row customHeight="1" ht="13.8" r="9" s="1">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x_3 = 17.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="1"/>
+    <row customHeight="1" ht="13.8" r="11" s="1"/>
+    <row customHeight="1" ht="13.8" r="12" s="1"/>
+    <row customHeight="1" ht="13.8" r="13" s="1"/>
+    <row customHeight="1" ht="13.8" r="14" s="1"/>
+    <row customHeight="1" ht="13.8" r="15" s="1"/>
+    <row customHeight="1" ht="13.8" r="16" s="1"/>
+    <row customHeight="1" ht="13.8" r="17" s="1"/>
+    <row customHeight="1" ht="13.8" r="18" s="1"/>
+    <row customHeight="1" ht="13.8" r="19" s="1"/>
+    <row customHeight="1" ht="13.8" r="20" s="1"/>
+    <row customHeight="1" ht="13.8" r="21" s="1"/>
+    <row customHeight="1" ht="13.8" r="22" s="1"/>
+    <row customHeight="1" ht="13.8" r="23" s="1"/>
+    <row customHeight="1" ht="13.8" r="24" s="1"/>
+    <row customHeight="1" ht="13.8" r="25" s="1"/>
+    <row customHeight="1" ht="13.8" r="26" s="1"/>
+    <row customHeight="1" ht="13.8" r="27" s="1"/>
+    <row customHeight="1" ht="13.8" r="28" s="1"/>
+    <row customHeight="1" ht="13.8" r="29" s="1"/>
+    <row customHeight="1" ht="13.8" r="30" s="1"/>
+    <row customHeight="1" ht="13.8" r="31" s="1"/>
+    <row customHeight="1" ht="13.8" r="32" s="1"/>
+    <row customHeight="1" ht="13.8" r="33" s="1"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/app/excel/Zadachka.xlsx
+++ b/app/excel/Zadachka.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8196" windowWidth="16380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>

--- a/app/excel/Zadachka.xlsx
+++ b/app/excel/Zadachka.xlsx
@@ -363,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
       <selection activeCell="D15" sqref="D15"/>
@@ -431,6 +431,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Статус: Нерешаемо</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Статус: Оптимально</t>
         </is>
       </c>
@@ -458,7 +463,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Сортировка: b/a</t>
+          <t>Количество решенных ЗЛП: 1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Значение целевой функции: 2127.0</t>
         </is>
       </c>
     </row>
@@ -483,9 +493,9 @@
       <c r="F4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Значение целевой функции: 2127.0</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>x_0 = 9.0</t>
         </is>
       </c>
     </row>
@@ -505,40 +515,34 @@
       <c r="F5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Количество решенных ЗЛП: 5</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x_1 = 12.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="1">
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x_0 = 9.0</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>x_2 = 15.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="7" s="1">
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x_1 = 12.0</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>x_3 = 17.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="8" s="1">
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x_2 = 15.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="9" s="1">
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>x_3 = 17.0</t>
-        </is>
-      </c>
-    </row>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Сортировка: b/a</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="1"/>
     <row customHeight="1" ht="13.8" r="10" s="1"/>
     <row customHeight="1" ht="13.8" r="11" s="1"/>
     <row customHeight="1" ht="13.8" r="12" s="1"/>

--- a/app/excel/Zadachka.xlsx
+++ b/app/excel/Zadachka.xlsx
@@ -1,33 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senyaetoya\Desktop\projects\александра\ZLP\app\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A3DA8-BFBB-4C05-A1EA-66CCE24CE11B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8196" windowWidth="16380" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>альфа (float)</t>
+  </si>
+  <si>
+    <t>бета (float)</t>
+  </si>
+  <si>
+    <t>v(int)</t>
+  </si>
+  <si>
+    <t>V(int)</t>
+  </si>
+  <si>
+    <t>тета (функция времени)</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Mountain Dew</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,19 +98,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -358,217 +408,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="18"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18.44140625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="20.109375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="20.33203125"/>
-    <col customWidth="1" max="5" min="5" style="1" width="17.33203125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="27.88671875"/>
-    <col customWidth="1" max="1025" min="7" style="1" width="8.5546875"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>альфа (float)</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>бета (float)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>v(int)</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>V(int)</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>тета (функция времени)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Товар 1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="1" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
         <v>1000</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2">
         <v>3.3</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Статус: Нерешаемо</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Статус: Оптимально</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Товар 2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="G2" s="5"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3">
         <v>1000</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Количество решенных ЗЛП: 1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Значение целевой функции: 2127.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="4" s="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Товар 3</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
+      <c r="F3" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2">
         <v>125</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3">
         <v>1000</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x_0 = 9.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="1">
-      <c r="B5" t="n">
+      <c r="G4" s="5"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
         <v>111</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>87</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>1000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x_1 = 12.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="6" s="1">
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>x_2 = 15.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="7" s="1">
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x_3 = 17.0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="8" s="1">
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Сортировка: b/a</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="9" s="1"/>
-    <row customHeight="1" ht="13.8" r="10" s="1"/>
-    <row customHeight="1" ht="13.8" r="11" s="1"/>
-    <row customHeight="1" ht="13.8" r="12" s="1"/>
-    <row customHeight="1" ht="13.8" r="13" s="1"/>
-    <row customHeight="1" ht="13.8" r="14" s="1"/>
-    <row customHeight="1" ht="13.8" r="15" s="1"/>
-    <row customHeight="1" ht="13.8" r="16" s="1"/>
-    <row customHeight="1" ht="13.8" r="17" s="1"/>
-    <row customHeight="1" ht="13.8" r="18" s="1"/>
-    <row customHeight="1" ht="13.8" r="19" s="1"/>
-    <row customHeight="1" ht="13.8" r="20" s="1"/>
-    <row customHeight="1" ht="13.8" r="21" s="1"/>
-    <row customHeight="1" ht="13.8" r="22" s="1"/>
-    <row customHeight="1" ht="13.8" r="23" s="1"/>
-    <row customHeight="1" ht="13.8" r="24" s="1"/>
-    <row customHeight="1" ht="13.8" r="25" s="1"/>
-    <row customHeight="1" ht="13.8" r="26" s="1"/>
-    <row customHeight="1" ht="13.8" r="27" s="1"/>
-    <row customHeight="1" ht="13.8" r="28" s="1"/>
-    <row customHeight="1" ht="13.8" r="29" s="1"/>
-    <row customHeight="1" ht="13.8" r="30" s="1"/>
-    <row customHeight="1" ht="13.8" r="31" s="1"/>
-    <row customHeight="1" ht="13.8" r="32" s="1"/>
-    <row customHeight="1" ht="13.8" r="33" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="5"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="5"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/app/excel/Zadachka.xlsx
+++ b/app/excel/Zadachka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senyaetoya\Desktop\projects\александра\ZLP\app\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A3DA8-BFBB-4C05-A1EA-66CCE24CE11B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE4BE3-A287-4460-9AA2-9BCE75B2BBBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>альфа (float)</t>
   </si>
@@ -37,16 +37,22 @@
     <t>тета (функция времени)</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
+    <t>Кол-во партий</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>3.3*x+5</t>
+  </si>
+  <si>
+    <t>Fanta</t>
   </si>
   <si>
     <t>Sprite</t>
   </si>
   <si>
-    <t>Fanta</t>
+    <t>Mirinda</t>
   </si>
   <si>
     <t>Mountain Dew</t>
@@ -100,13 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,155 +432,152 @@
     <col min="8" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B5" s="2">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E5" s="2">
         <v>1000</v>
       </c>
-      <c r="F2" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="I2"/>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>70</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E6" s="4">
         <v>1000</v>
       </c>
-      <c r="F3" s="2">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="I3"/>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>125</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>111</v>
-      </c>
-      <c r="C5" s="4">
-        <v>87</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>59</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="5"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="5"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
